--- a/Proyectos/2016/Cambios/Solicitud_cambio_160912.xlsx
+++ b/Proyectos/2016/Cambios/Solicitud_cambio_160912.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Novela\Documents\Qualtop\SOSQTP\Proyectos\2016\Cambios\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" tabRatio="663"/>
   </bookViews>
@@ -36,7 +31,7 @@
     <definedName name="Ocupacion">[2]Parámetros!$B$22:$B$23</definedName>
     <definedName name="UEN">[3]Parámetros!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -46,7 +41,7 @@
     <author>Novela</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0" shapeId="0">
+    <comment ref="J12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Datos Generales</t>
   </si>
@@ -270,6 +265,9 @@
   </si>
   <si>
     <t>Interno</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
   </si>
 </sst>
 </file>
@@ -851,7 +849,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="45" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -931,6 +929,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="21" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -960,30 +961,30 @@
     <cellStyle name="Accent5" xfId="25"/>
     <cellStyle name="Accent6" xfId="26"/>
     <cellStyle name="Bad" xfId="29"/>
+    <cellStyle name="Buena" xfId="27" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="19"/>
-    <cellStyle name="Check Cell" xfId="20" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="48" builtinId="4"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="31" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="28" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="30" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Euro" xfId="47"/>
     <cellStyle name="Explanatory Text" xfId="37"/>
-    <cellStyle name="Good" xfId="27" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="39"/>
     <cellStyle name="Heading 2" xfId="40"/>
     <cellStyle name="Heading 3" xfId="41"/>
-    <cellStyle name="Heading 4" xfId="28" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="30" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="31" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Moneda" xfId="48" builtinId="4"/>
     <cellStyle name="Moneda 2" xfId="32"/>
     <cellStyle name="Neutral" xfId="33" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="44"/>
     <cellStyle name="Normal 2 2" xfId="46"/>
     <cellStyle name="Normal 3" xfId="45"/>
-    <cellStyle name="Note" xfId="34" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="34" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="36"/>
     <cellStyle name="Porcentual 2" xfId="35"/>
+    <cellStyle name="Texto de advertencia" xfId="43" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Title" xfId="38"/>
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1576,11 +1577,11 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
@@ -2257,22 +2258,20 @@
       <c r="C35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="31">
+        <v>42625</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B11:J11"/>
@@ -2286,6 +2285,12 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
@@ -2309,18 +2314,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Status xmlns="035E5738-9077-49AA-867C-265905AEBD06">Listo para revisión</Status>
-    <Owner xmlns="035E5738-9077-49AA-867C-265905AEBD06">
-      <UserInfo>
-        <DisplayName>Ra Acosta</DisplayName>
-        <AccountId>24</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2408,25 +2407,24 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Status xmlns="035E5738-9077-49AA-867C-265905AEBD06">Listo para revisión</Status>
+    <Owner xmlns="035E5738-9077-49AA-867C-265905AEBD06">
+      <UserInfo>
+        <DisplayName>Ra Acosta</DisplayName>
+        <AccountId>24</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862920E9-66EB-4C3E-957A-EA8E4211520C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F292331-53F9-4EF7-AEE3-BD24EFCEB3B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="035E5738-9077-49AA-867C-265905AEBD06"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2449,9 +2447,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F292331-53F9-4EF7-AEE3-BD24EFCEB3B6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862920E9-66EB-4C3E-957A-EA8E4211520C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="035E5738-9077-49AA-867C-265905AEBD06"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>